--- a/meddata.xlsx
+++ b/meddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81112c65c5e6b288/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{E755998B-16D6-4B6C-89FA-5AAAD8BD41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628601FB-7F25-4B32-9D12-73ED8701EF7B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="14_{E755998B-16D6-4B6C-89FA-5AAAD8BD41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022B12E6-CFC0-4E68-8BD1-5BB6275420A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="416">
-  <si>
-    <t>i feel lonely</t>
-  </si>
-  <si>
-    <t>how often you feel this?</t>
-  </si>
-  <si>
-    <t>does people around me influence my mental health</t>
-  </si>
-  <si>
-    <t>how supportive are your family and friends?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="414">
   <si>
     <t>what can be the main causes of my anxiety?</t>
   </si>
@@ -121,12 +109,6 @@
   </si>
   <si>
     <t>yes there are certain drugs that can cause anxiety as a sisde effect</t>
-  </si>
-  <si>
-    <t>i feel like having anxiety issues now oftenly</t>
-  </si>
-  <si>
-    <t>when did you first notice of having anxiety?</t>
   </si>
   <si>
     <t>what all are the kinds of anxiety can be faced?</t>
@@ -675,18 +657,6 @@
   </si>
   <si>
     <t>The pricing of medications can vary depending on several factors, and it's important to consider these factors to gain a better understanding. Firstly, the research and development of psychiatric medications require substantial investment in time, resources, and expertise. Pharmaceutical companies invest heavily in clinical trials, testing, and obtaining regulatory approval before a medication can be brought to market. These costs are often passed on to consumers through the pricing of the medications. Secondly, psychiatric medications often require ongoing monitoring and adjustments by healthcare professionals to ensure their effectiveness and safety for patients. This includes regular doctor visits and sometimes additional testing, which can also contribute to the overall cost. Furthermore, the complexity of mental health conditions and the individualized nature of treatment can lead to a variety of medications being available, each with its own unique formulation and production costs. This diversity of medications can further impact pricing. Another factor to consider is the influence of patents and exclusivity rights. When a pharmaceutical company develops a new medication, they are often granted a patent, which gives them exclusive rights to sell the medication for a certain period. During this time, they can set the price without direct competition.</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>How can I assist you today..</t>
-  </si>
-  <si>
-    <t>I'm not feeling well today</t>
-  </si>
-  <si>
-    <t>Can you explain in detail about how you are feeling.. So that I would be able to process it more.</t>
   </si>
   <si>
     <t>What are the symptoms of panic attack?</t>
@@ -1030,37 +1000,19 @@
     <t>Tips include preparing a study schedule, practicing relaxation techniques, getting enough sleep, staying hydrated, and seeking support from friends and family</t>
   </si>
   <si>
-    <t>what is mental health</t>
-  </si>
-  <si>
     <t>It means the state of being sociological ,emotional and so on.It affects how we think,feel and behave i n our life.</t>
   </si>
   <si>
-    <t>How to prevent mental health problems</t>
-  </si>
-  <si>
     <t>You cannot prevent it,but you can reduce its impact or risk through measures like managing stress,proper sleep,managing lifestyle ans so on.</t>
   </si>
   <si>
-    <t>Cure for mental health problems</t>
-  </si>
-  <si>
     <t>The cure for the mental health problem are therapy, meditation,proper sleep,good lifestyle and so on</t>
   </si>
   <si>
-    <t>Iam worried about my mental health</t>
-  </si>
-  <si>
     <t>you can reach out to people for help,seek immediate medical facility,avoid unwanted stress</t>
   </si>
   <si>
-    <t>what to do if iam worried about my mental helath</t>
-  </si>
-  <si>
     <t>Talk about to someone whom you can trust.It is the best way to release stress .</t>
-  </si>
-  <si>
-    <t>How do I know if I’m unwell</t>
   </si>
   <si>
     <t>If your beliefs , thoughts , feelings or behaviours have a significant impact on your ability to function,then you are unwell</t>
@@ -1099,169 +1051,85 @@
     <t xml:space="preserve">The signs of mental ill-health may be different from one person to the other, so it’s often a good idea to check in with others to see what’s going on with them.   </t>
   </si>
   <si>
-    <t>Am I the only one who feels this way</t>
-  </si>
-  <si>
     <t>Experiencing a mental health problem is often upsetting, confusing and frightening . If you become unwell, you may feel that it's a sign of weakness, or that you are losing your mind.</t>
   </si>
   <si>
-    <t>How can I help my partner if she’s suffering from depression</t>
-  </si>
-  <si>
     <t>The best is to listen without judging her, to encourage her to seek help and to ask her how you can help her.</t>
   </si>
   <si>
-    <t>I’m a new dad and I’m finding it harder than I thought. Should I see someone</t>
-  </si>
-  <si>
     <t>Depression affects nearly 10% of dads before or after the birth. Men tend to express their distress with anger, impatience and irritation rather than sadness and tears like women</t>
   </si>
   <si>
-    <t>I worry constantly about my child. Am I suffering from anxiety</t>
-  </si>
-  <si>
     <t>It’s normal to be worried from time to time about your child. However, anxiety becomes a problem when you’re unable to control it.</t>
   </si>
   <si>
-    <t>Do I need to explain to my child that I have a mental health issue</t>
-  </si>
-  <si>
     <t>Your illness is part of your child’s life and she therefore needs to know what’s happening.</t>
   </si>
   <si>
-    <t>How do you explain to a toddler that her mom or dad is in the hospital for mental health reasons.</t>
-  </si>
-  <si>
     <t>Talk to her in simple terms, as you would about any other illness: “Daddy is sick in his head and he’s at the hospital so that the doctors can take care of him</t>
   </si>
   <si>
-    <t>Can I be a good parent despite my mental health disorder</t>
-  </si>
-  <si>
     <t>Of course, as long as you do what needs to be done to heal or to control your illness.</t>
   </si>
   <si>
-    <t>Can young children have mental health problems</t>
-  </si>
-  <si>
     <t>Up to 20% of children and adolescents live with a mental disorder, which may begin in early childhood.</t>
   </si>
   <si>
-    <t>Can parental separation affect a child’s mental health</t>
-  </si>
-  <si>
     <t>Scientific studies show that the separation or divorce of parents increases the symptoms of anxiety and depression in a child. Even if this increase is only slight, it indicates that separation is a source of stress and sadness for young children</t>
   </si>
   <si>
-    <t>How do I promote my child’s mental health</t>
-  </si>
-  <si>
     <t>In order to help him develop healthy self-esteem, encourage his efforts, praise him on his achievements and show interest in what he does.</t>
   </si>
   <si>
-    <t>Do I have mental health</t>
-  </si>
-  <si>
     <t>Just like we all have physical health, we all have mental health. We can easily compare this to physical health.</t>
   </si>
   <si>
-    <t>Does everyone experience mental health the same way</t>
-  </si>
-  <si>
     <t>No one experiences mental health in the same way. We are all unique, with unique minds, bodies, and experiences shaping us to be who we are.</t>
   </si>
   <si>
-    <t>What is Mental Health Awareness month</t>
-  </si>
-  <si>
     <t>Mental Health Awareness month is celebrated in May, starting back in 1949. This time is dedicated to advocacy and helping others realize the importance of mental health</t>
   </si>
   <si>
-    <t>Do I have to have a mental illness to celebrate or advocate for mental health</t>
-  </si>
-  <si>
     <t>Mental health is made up of so much more than just mental illness. Anyone can advocate for mental health because everyone experiences it.</t>
   </si>
   <si>
-    <t>What if I have never had a mental illness</t>
-  </si>
-  <si>
     <t>Not all people will experience a mental illness, but everyone will struggle or have a challenge with their mental well-being</t>
   </si>
   <si>
-    <t>What is depression</t>
-  </si>
-  <si>
     <t>Depression is a constant feeling of sadness and loss of interest, which stops you doing your normal activities</t>
   </si>
   <si>
-    <t>What are the symptoms of depression in men</t>
-  </si>
-  <si>
     <t>signs of depression in men include sleep disturbances, weight gain or loss, excessive irritability or intolerance and anger.</t>
   </si>
   <si>
-    <t xml:space="preserve"> What is postpartum depression</t>
-  </si>
-  <si>
     <t>It begins soon after the baby's delivery and usually lasts six to eight weeks and ends when the mother's body has nearly returned to its pre-pregnant state</t>
   </si>
   <si>
-    <t>What does an anxiety attack feel like</t>
-  </si>
-  <si>
     <t>People often use the terms panic attack and anxiety attack interchangeably, but there’s a difference between the two. A panic attack occurs out of nowhere,it could take place even while sipping a cup of coffee.It takes lives faster than the speed of wind</t>
   </si>
   <si>
-    <t>What is bipolar mood disorder</t>
-  </si>
-  <si>
     <t>Typically, they are mood swings. What a person faces in bipolar disorder are phases of mania and phases of depression</t>
   </si>
   <si>
-    <t>Does mental illness affect women and men differently</t>
-  </si>
-  <si>
     <t>Yes, there are gender differences in mental health. Women are more likely to be diagnosed with anxiety or depression, often because they tend to ruminate on negative emotions and problems more than men.</t>
   </si>
   <si>
-    <t>What is the link between mental illness and violence</t>
-  </si>
-  <si>
     <t>There is a link between mental illness and violence, but not the one most people think. Many believe people with mental illness are more violent, but they are actually more likely to be victims of violence.</t>
   </si>
   <si>
-    <t>When do mental health disorders begin to manifest</t>
-  </si>
-  <si>
     <t>Most mental health disorders start in adolescence or early 20s. Research shows this is when the brain undergoes significant changes, making it more sensitive to environmental influences.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Is mental health becoming more serious</t>
-  </si>
-  <si>
     <t>Over 90% of people who die by suicide have a diagnosable mental disorder. Many of these individuals often suffer from undiagnosed, untreated, or  untreated mental health issues.</t>
   </si>
   <si>
-    <t>How serious is the lack of treatment and care for those with a mental illness</t>
-  </si>
-  <si>
     <t xml:space="preserve">According to a 2016 Mental Health America report, 56% of adults in the U.S, with a mental health condition, are not receiving proper treatment. Six out of ten young people, with major depression, are not receiving any treatment.More alarming than the poor treatment, is the lack of understanding and care that is often shown towards those who struggle with a mental illness. </t>
   </si>
   <si>
-    <t>What can you do to help end the stigma surrounding mental health</t>
-  </si>
-  <si>
     <t>Educate yourself and others about mental illness. The stigma that surrounds mental health most often stems from a lack of understanding as to what mental illness truly is.</t>
   </si>
   <si>
-    <t>What is the difference between mental health and mental illness</t>
-  </si>
-  <si>
     <t>Poor mental health doesn't always mean having a mental illness and people with mental illness can still have good mental health attimes.Understanding this difference is important. It helps us take care of our mental health every day and be kind to those with mental illnesses.</t>
-  </si>
-  <si>
-    <t>How do I know if I should see a therapist</t>
   </si>
   <si>
     <t>Constant feelings of sadness, anxiety, or emptiness.
@@ -1270,21 +1138,12 @@
 Loss of interest in activities or hobbies.</t>
   </si>
   <si>
-    <t>Does therapy really work</t>
-  </si>
-  <si>
     <t>therapy can be incredibly effective in treating a range of mental health issues, from anxiety and depression to trauma and relationship problems.</t>
-  </si>
-  <si>
-    <t>How do I choose the right therapist for me</t>
   </si>
   <si>
     <t>Connection: It's essential to feel understood and safe with your therapist.
 Expertise: Find a therapist specializing in your specific issues, like trauma or anxiety.
 Referrals: Seek recommendations from friends or review online feedback, keeping in mind that therapy is personal.</t>
-  </si>
-  <si>
-    <t>What can I expect from my first therapy session</t>
   </si>
   <si>
     <t>Introduction: Your therapist will introduce themselves and ensure a safe space. 
@@ -1293,21 +1152,12 @@
 Questions: Feel free to ask about their approach or anything else.</t>
   </si>
   <si>
-    <t>How is progress measured in therapy</t>
-  </si>
-  <si>
     <t>Clear Goals: Set specific objectives such as managing anxiety or improving relationships.
 Emotional Growth: Feeling more balanced, hopeful, or content indicates progress.
 Behavioral Changes: Adopting new habits like using coping strategies or facing challenges shows development.</t>
   </si>
   <si>
-    <t>What if I feel like therapy isn’t working for me</t>
-  </si>
-  <si>
     <t>Maybe you join a support group while you weigh out your therapy options. You can also have a friend or family member help you sort through different providers.</t>
-  </si>
-  <si>
-    <t>How do I balance therapy with my daily life</t>
   </si>
   <si>
     <t>Self-care: Therapy is a way to take care of yourself and improve your life.
@@ -1315,35 +1165,20 @@
 Setting Boundaries: Let others know about your therapy appointments to avoid conflicts and ensure you have dedicated time.</t>
   </si>
   <si>
-    <t xml:space="preserve"> How do I know when it’s time to conclude therapy</t>
-  </si>
-  <si>
     <t>Goals Met: When you've reached the goals you set in therapy, it might be time to finish.
 Better Coping: If you're handling challenges well and using therapy tools regularly, you could be ready to end therapy.
 Feeling Empowered: Feeling more in control of your emotions and decisions shows you're making progress.</t>
   </si>
   <si>
-    <t>How does a therapist know what to focus on with a new patient that suffers from anxiety</t>
-  </si>
-  <si>
     <t>In the initial session, therapist ask the client to tell  what anxiety looks like for them. What situations trigger it, what thoughts and feelings they experience when triggered, etc</t>
   </si>
   <si>
-    <t>Will my anxiety ever truly get better</t>
-  </si>
-  <si>
     <t>Treatment depends on how severe your anxiety is and what kind of anxiety you have. Sometimes therapy is enough. Sometimes you also need medication</t>
   </si>
   <si>
-    <t>Should i only consider therapy when i feel depressed</t>
-  </si>
-  <si>
     <t>While therapy is often recommended for individuals who have experienced trauma, it is possible to heal without it. Self-care ,exercise and spending time in nature  can be effective in reducing symptoms of trauma.</t>
   </si>
   <si>
-    <t>What’s the best way to support a significant other who is dealing with severe depression</t>
-  </si>
-  <si>
     <t>Instead of always trying to solve problems with advice, sometimes it's best to just listen to your partner. Be someone they feel safe talking to.</t>
   </si>
   <si>
@@ -1351,9 +1186,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mental health check-ins are quick questions that you can use as a guide to ask your students about how they’re really feeling. </t>
-  </si>
-  <si>
-    <t>Is there a legal requirement to carry out a wellbeing risk assessment</t>
   </si>
   <si>
     <t>There is no legislation that specifically mentions work-related stress however under Article 4 of the Health and Safety at Work Order (NI) 1978 employers have a duty to ensure so far as is reasonably practicable the health, safety and welfare of employees at work</t>
@@ -1377,9 +1209,6 @@
     <t xml:space="preserve">It can impair concentration, memory, and decision-making abilities. It can also lead to
 increased irritability, mood swings, and anxiety. Prolonged or severe stress may contribute to
 the development of mental health conditions or worsen the existing ones. </t>
-  </si>
-  <si>
-    <t>symptoms of mental disorders in women</t>
   </si>
   <si>
     <t>Persistent sadness or feelings of hopelessness
@@ -1443,6 +1272,171 @@
   </si>
   <si>
     <t>Questions</t>
+  </si>
+  <si>
+    <t>I feel lonely</t>
+  </si>
+  <si>
+    <t>does people around me influence my mental health?</t>
+  </si>
+  <si>
+    <t>Don’t feel lonely… Approach your friends and close relative who you can share you feelings and spend your time.</t>
+  </si>
+  <si>
+    <t>It may not be necessary .. If you feel so stay away from them  and engage in your own activities.</t>
+  </si>
+  <si>
+    <t>i feel like having anxiety issues now oftenly and what should I do ?</t>
+  </si>
+  <si>
+    <t>Experiencing anxiety frequently can be challenging, but there are several steps you can take to manage itRegular physical activity can help reduce anxiety. Aim for at least 30 minutes of exercise most days.Eating a balanced diet with plenty of fruits, vegetables, and whole grains can improve your overall well-being.</t>
+  </si>
+  <si>
+    <t>Is there a legal requirement to carry out a wellbeing risk assessment?</t>
+  </si>
+  <si>
+    <t>What’s the best way to support a significant other who is dealing with severe depression?</t>
+  </si>
+  <si>
+    <t>How does a therapist know what to focus on with a new patient that suffers from anxiety?</t>
+  </si>
+  <si>
+    <t>Should i only consider therapy when i feel depressed?</t>
+  </si>
+  <si>
+    <t>Will my anxiety ever truly get better?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How do I know when it’s time to conclude therapy?</t>
+  </si>
+  <si>
+    <t>How do I balance therapy with my daily life?</t>
+  </si>
+  <si>
+    <t>What if I feel like therapy isn’t working for me?</t>
+  </si>
+  <si>
+    <t>How is progress measured in therapy?</t>
+  </si>
+  <si>
+    <t>What can I expect from my first therapy session?</t>
+  </si>
+  <si>
+    <t>How do I choose the right therapist for me?</t>
+  </si>
+  <si>
+    <t>Does therapy really work?</t>
+  </si>
+  <si>
+    <t>How do I know if I should see a therapist?</t>
+  </si>
+  <si>
+    <t>What is the difference between mental health and mental illness?</t>
+  </si>
+  <si>
+    <t>What can you do to help end the stigma surrounding mental health?</t>
+  </si>
+  <si>
+    <t>How serious is the lack of treatment and care for those with a mental illness?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is mental health becoming more serious?</t>
+  </si>
+  <si>
+    <t>When do mental health disorders begin to manifest?</t>
+  </si>
+  <si>
+    <t>What is the link between mental illness and violence?</t>
+  </si>
+  <si>
+    <t>Am I the only one who feels this way?</t>
+  </si>
+  <si>
+    <t>How can I help my partner if she’s suffering from depression?</t>
+  </si>
+  <si>
+    <t>I’m a new dad and I’m finding it harder than I thought. Should I see someone?</t>
+  </si>
+  <si>
+    <t>I worry constantly about my child. Am I suffering from anxiety?</t>
+  </si>
+  <si>
+    <t>Do I need to explain to my child that I have a mental health issue?</t>
+  </si>
+  <si>
+    <t>How do you explain to a toddler that her mom or dad is in the hospital for mental health reasons.?</t>
+  </si>
+  <si>
+    <t>Can I be a good parent despite my mental health disorder?</t>
+  </si>
+  <si>
+    <t>Can young children have mental health problems?</t>
+  </si>
+  <si>
+    <t>Can parental separation affect a child’s mental health?</t>
+  </si>
+  <si>
+    <t>How do I promote my child’s mental health?</t>
+  </si>
+  <si>
+    <t>Do I have mental health?</t>
+  </si>
+  <si>
+    <t>Does everyone experience mental health the same way?</t>
+  </si>
+  <si>
+    <t>What is Mental Health Awareness month?</t>
+  </si>
+  <si>
+    <t>Do I have to have a mental illness to celebrate or advocate for mental health?</t>
+  </si>
+  <si>
+    <t>What if I have never had a mental illness?</t>
+  </si>
+  <si>
+    <t>What is depression?</t>
+  </si>
+  <si>
+    <t>What are the symptoms of depression in men?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is postpartum depression?</t>
+  </si>
+  <si>
+    <t>What does an anxiety attack feel like?</t>
+  </si>
+  <si>
+    <t>What is bipolar mood disorder?</t>
+  </si>
+  <si>
+    <t>Does mental illness affect women and men differently?</t>
+  </si>
+  <si>
+    <t>what are thesymptoms of mental disorders in women?</t>
+  </si>
+  <si>
+    <t>what to do if iam worried about my mental helath?</t>
+  </si>
+  <si>
+    <t>Iam worried about my mental health?</t>
+  </si>
+  <si>
+    <t>Cure for mental health problems?</t>
+  </si>
+  <si>
+    <t>How to prevent mental health problems?</t>
+  </si>
+  <si>
+    <t>what is mental health?</t>
+  </si>
+  <si>
+    <t>I'm not feeling well today.What should I do now?</t>
+  </si>
+  <si>
+    <t>Engage in some work that makes you happier.</t>
+  </si>
+  <si>
+    <t>Can you help me with anxeity disorder?</t>
   </si>
 </sst>
 </file>
@@ -1903,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A182" sqref="A1:B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1916,1690 +1910,1688 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.4">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6">
       <c r="A52" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.4">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="72">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="129.6">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.4">
       <c r="A102" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>200</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" spans="1:2" ht="14.4">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>411</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="26.4">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.4">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" customHeight="1">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.4">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.4">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.4">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.4">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.4">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1">
       <c r="A130" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1">
       <c r="A132" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1">
       <c r="A133" s="15" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" customHeight="1">
       <c r="A134" s="15" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1">
       <c r="A135" s="16" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1">
       <c r="A136" s="16" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1">
       <c r="A137" s="16" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1">
       <c r="A138" s="16" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1">
       <c r="A140" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1">
       <c r="A143" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1">
       <c r="A144" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1">
       <c r="A145" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1">
       <c r="A147" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1">
       <c r="A148" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1">
       <c r="A149" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" customHeight="1">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" customHeight="1">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1">
       <c r="A152" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="B152" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" customHeight="1">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" customHeight="1">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" customHeight="1">
       <c r="A158" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1">
       <c r="A159" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" customHeight="1">
       <c r="A160" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1">
       <c r="A161" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" customHeight="1">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" customHeight="1">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1">
       <c r="A167" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1">
       <c r="A168" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" customHeight="1">
       <c r="A169" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" customHeight="1">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" customHeight="1">
       <c r="A171" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" customHeight="1">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" customHeight="1">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="B173" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1">
       <c r="A174" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="B174" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1">
       <c r="A175" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="B176" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" customHeight="1">
       <c r="A177" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="B177" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" customHeight="1">
       <c r="A178" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="B178" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" customHeight="1">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" customHeight="1">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="B180" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" customHeight="1">
       <c r="A181" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="B181" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" customHeight="1">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" customHeight="1">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" customHeight="1">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" customHeight="1">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B185" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" customHeight="1">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B186" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" customHeight="1">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" customHeight="1">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" customHeight="1">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" customHeight="1">
       <c r="A190" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" customHeight="1">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" customHeight="1">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" customHeight="1">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" customHeight="1">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" customHeight="1">
       <c r="A195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B195" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" customHeight="1">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" customHeight="1">
       <c r="A197" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" customHeight="1">
       <c r="A198" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" customHeight="1">
       <c r="A199" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B199" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" customHeight="1">
       <c r="A200" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" customHeight="1">
       <c r="A201" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B201" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" customHeight="1">
       <c r="A202" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="B202" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" customHeight="1">
       <c r="A203" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" customHeight="1">
       <c r="A204" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" customHeight="1">
       <c r="A205" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" customHeight="1">
       <c r="A206" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" customHeight="1">
       <c r="A207" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" customHeight="1">
       <c r="A208" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" customHeight="1">
       <c r="A209" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="B209" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" customHeight="1">
       <c r="A210" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="B210" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" customHeight="1">
       <c r="A211" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="B211" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
